--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N2">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q2">
-        <v>0.07761757907222222</v>
+        <v>0.1107347716294445</v>
       </c>
       <c r="R2">
-        <v>0.69855821165</v>
+        <v>0.9966129446650001</v>
       </c>
       <c r="S2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="T2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,22 +629,22 @@
         <v>57.795224</v>
       </c>
       <c r="O3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q3">
         <v>0.09475205890222223</v>
       </c>
       <c r="R3">
-        <v>0.8527685301200001</v>
+        <v>0.85276853012</v>
       </c>
       <c r="S3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="T3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N4">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q4">
-        <v>0.1712050127088889</v>
+        <v>0.2301671763877778</v>
       </c>
       <c r="R4">
-        <v>1.54084511438</v>
+        <v>2.07150458749</v>
       </c>
       <c r="S4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="T4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N5">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q5">
-        <v>0.04711420361555555</v>
+        <v>0.03067928128777778</v>
       </c>
       <c r="R5">
-        <v>0.42402783254</v>
+        <v>0.27611353159</v>
       </c>
       <c r="S5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="T5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N6">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q6">
-        <v>0.1781747599233334</v>
+        <v>0.1745095933316667</v>
       </c>
       <c r="R6">
-        <v>1.60357283931</v>
+        <v>1.570586339985</v>
       </c>
       <c r="S6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="T6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N7">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q7">
-        <v>0.2139454752861111</v>
+        <v>0.204617249525</v>
       </c>
       <c r="R7">
-        <v>1.925509277575</v>
+        <v>1.841555245725</v>
       </c>
       <c r="S7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="T7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
     </row>
   </sheetData>
